--- a/test.xlsx
+++ b/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>5,2,3,2,6,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,19 +42,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4,2,4,3,5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dut_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dut_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_detection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arm_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arm_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5,6,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5,2,3,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,10,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>step_server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,2,4,3,5,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dut_server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dut_server</t>
+    <t>unet_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -403,49 +455,106 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1.5</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>5,2,3,2,6,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +448,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -467,10 +475,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -481,10 +489,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -495,7 +503,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -523,10 +531,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -540,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/test.xlsx
+++ b/test.xlsx
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>5,2,3,2,6,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>server_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,79 +38,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,2,4,3,5,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dut_server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dut_server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>active_detection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>unet_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arm_server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arm_server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5,6,1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,5,2,3,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10,10,10,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>step_server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unet_server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,124 +389,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -24,7 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+  <si>
+    <t>5,2,3,2,6,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>server_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,27 +42,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>dut_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>active_detection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>arm_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5,6,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>unet_server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>OFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>yes,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yes,5</t>
+    <t>yes,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes,20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,26 +421,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -416,27 +448,69 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
